--- a/biology/Botanique/Square_de_l'Oiseau-Lunaire/Square_de_l'Oiseau-Lunaire.xlsx
+++ b/biology/Botanique/Square_de_l'Oiseau-Lunaire/Square_de_l'Oiseau-Lunaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_de_l%27Oiseau-Lunaire</t>
+          <t>Square_de_l'Oiseau-Lunaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de l'Oiseau-Lunaire est un square du 15e arrondissement de Paris, dans le quartier Necker.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_de_l%27Oiseau-Lunaire</t>
+          <t>Square_de_l'Oiseau-Lunaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square se trouve au 45-47, rue Blomet, dans le 15e arrondissement de Paris.
 Il est desservi par la ligne 12 à la station Volontaires.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_de_l%27Oiseau-Lunaire</t>
+          <t>Square_de_l'Oiseau-Lunaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'une sculpture de Joan Miró, placée en ce lieu en 1974. L'artiste avait son atelier au 45, rue Blomet.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_de_l%27Oiseau-Lunaire</t>
+          <t>Square_de_l'Oiseau-Lunaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square de 4 200 m2 est ouvert en 1969, à l’emplacement d’anciens ateliers d'artistes sous le nom de « square Blomet[1],[2] ».
-À la suite d'un vœu exprimé au Conseil municipal de Paris par le groupe socialiste-radical de gauche, le square est renommé le 19 juin 2009 et prend pour nom « square de l'Oiseau-Lunaire[1] ». Une plaque explique l'histoire du lieu et la présence de la sculpture de Joan Miró.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square de 4 200 m2 est ouvert en 1969, à l’emplacement d’anciens ateliers d'artistes sous le nom de « square Blomet, ».
+À la suite d'un vœu exprimé au Conseil municipal de Paris par le groupe socialiste-radical de gauche, le square est renommé le 19 juin 2009 et prend pour nom « square de l'Oiseau-Lunaire ». Une plaque explique l'histoire du lieu et la présence de la sculpture de Joan Miró.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_de_l%27Oiseau-Lunaire</t>
+          <t>Square_de_l'Oiseau-Lunaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
